--- a/Transform/Resources/tables_headers.xlsx
+++ b/Transform/Resources/tables_headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kienh\Desktop\GitHub\ETL_Ballers\Transform\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66207ACC-A712-4CE3-A892-BED70068389F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947AC84-F17A-4917-8A52-E44C69C775C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97DDF107-94BE-45DF-8EBA-9287974D3B74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97DDF107-94BE-45DF-8EBA-9287974D3B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>index</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>level_0</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -611,27 +620,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7BABEF-E3DA-4424-9022-1BE8013C2E48}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -639,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -650,8 +669,12 @@
         <f>A3&amp;" "&amp;B3</f>
         <v>level_0 int</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>$G$1&amp;A3&amp;$G$1&amp;$H$1&amp;" "&amp;A3&amp;$I$1</f>
+        <v>'level_0': level_0,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +685,12 @@
         <f t="shared" ref="E4:E12" si="0">A4&amp;" "&amp;B4</f>
         <v>index int</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G67" si="1">$G$1&amp;A4&amp;$G$1&amp;$H$1&amp;" "&amp;A4&amp;$I$1</f>
+        <v>'index': index,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -674,8 +701,12 @@
         <f t="shared" si="0"/>
         <v>PLAYER varchar</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>'PLAYER': PLAYER,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -686,8 +717,12 @@
         <f t="shared" si="0"/>
         <v>POS varchar</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>'POS': POS,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -698,8 +733,12 @@
         <f t="shared" si="0"/>
         <v>HEIGHT varchar</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>'HEIGHT': HEIGHT,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,8 +749,12 @@
         <f t="shared" si="0"/>
         <v>WEIGHT int</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>'WEIGHT': WEIGHT,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -722,8 +765,12 @@
         <f t="shared" si="0"/>
         <v>BIRTH_DATE int</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>'BIRTH_DATE': BIRTH_DATE,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -734,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>NATIONALITY varchar</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>'NATIONALITY': NATIONALITY,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -746,8 +797,12 @@
         <f t="shared" si="0"/>
         <v>EXPERIENCE varchar</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>'EXPERIENCE': EXPERIENCE,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -758,24 +813,42 @@
         <f t="shared" si="0"/>
         <v>COLLEGE varchar</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>'COLLEGE': COLLEGE,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>'': ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>'GOAT_playoffs_games': GOAT_playoffs_games,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>'--': --,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -783,11 +856,15 @@
         <v>69</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ref="E16:E28" si="1">A16&amp;" "&amp;B16</f>
+        <f t="shared" ref="E16:E28" si="2">A16&amp;" "&amp;B16</f>
         <v>name varchar</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>'name': name,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -795,11 +872,15 @@
         <v>68</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Player_ID int</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>'Player_ID': Player_ID,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -807,11 +888,15 @@
         <v>69</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MATCHUP varchar</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>'MATCHUP': MATCHUP,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,11 +904,15 @@
         <v>69</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>WL varchar</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>'WL': WL,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -831,11 +920,15 @@
         <v>70</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FG3_PCT float</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>'FG3_PCT': FG3_PCT,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -843,11 +936,15 @@
         <v>68</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FGM int</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>'FGM': FGM,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -855,11 +952,15 @@
         <v>68</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FTM int</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>'FTM': FTM,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -867,11 +968,15 @@
         <v>68</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MIN int</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>'MIN': MIN,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -879,11 +984,15 @@
         <v>68</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>REB int</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>'REB': REB,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -891,11 +1000,15 @@
         <v>70</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AST float</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>'AST': AST,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -903,11 +1016,15 @@
         <v>68</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>PTS int</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>'PTS': PTS,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -915,11 +1032,15 @@
         <v>70</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BLK float</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLK': BLK,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -927,27 +1048,45 @@
         <v>70</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>STL float</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>'STL': STL,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>'': ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>'NBA_Season_Data': NBA_Season_Data,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>'--': --,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -955,11 +1094,15 @@
         <v>68</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" ref="E32:E49" si="2">A32&amp;" "&amp;B32</f>
+        <f t="shared" ref="E32:E49" si="3">A32&amp;" "&amp;B32</f>
         <v>Year int</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>'Year': Year,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -967,11 +1110,15 @@
         <v>69</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tm varchar</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tm': Tm,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -979,11 +1126,15 @@
         <v>69</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Player varchar</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>'Player': Player,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -991,11 +1142,15 @@
         <v>68</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Age int</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>'Age': Age,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -1003,11 +1158,15 @@
         <v>68</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>G int</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>'G': G,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1015,11 +1174,15 @@
         <v>68</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MP int</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>'MP': MP,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1027,11 +1190,15 @@
         <v>70</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PER float</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>'PER': PER,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1039,11 +1206,15 @@
         <v>70</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TS% float</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>'TS%': TS%,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -1051,11 +1222,15 @@
         <v>70</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3PAr float</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>'3PAr': 3PAr,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -1063,11 +1238,15 @@
         <v>70</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FTr float</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>'FTr': FTr,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1075,11 +1254,15 @@
         <v>70</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ORB% float</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>'ORB%': ORB%,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1087,11 +1270,15 @@
         <v>70</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DRB% float</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>'DRB%': DRB%,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -1099,11 +1286,15 @@
         <v>70</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TRB% float</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>'TRB%': TRB%,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -1111,11 +1302,15 @@
         <v>70</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AST% float</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>'AST%': AST%,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -1123,11 +1318,15 @@
         <v>70</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>STL% float</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>'STL%': STL%,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -1135,11 +1334,15 @@
         <v>70</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BLK% float</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLK%': BLK%,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>42</v>
       </c>
@@ -1147,11 +1350,15 @@
         <v>70</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOV% float</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>'TOV%': TOV%,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -1159,27 +1366,45 @@
         <v>70</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USG% float</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>'USG%': USG%,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>'': ,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
       <c r="E51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>'player_per_game_stats': player_per_game_stats,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>'--': --,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1187,11 +1412,15 @@
         <v>69</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" ref="E53:E81" si="3">A53&amp;" "&amp;B53</f>
+        <f t="shared" ref="E53:E81" si="4">A53&amp;" "&amp;B53</f>
         <v>Player varchar</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>'Player': Player,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -1199,11 +1428,15 @@
         <v>69</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Pos varchar</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>'Pos': Pos,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -1211,11 +1444,15 @@
         <v>70</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Age float</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>'Age': Age,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -1223,11 +1460,15 @@
         <v>69</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Tm varchar</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tm': Tm,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
@@ -1235,11 +1476,15 @@
         <v>70</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>G float</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>'G': G,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
@@ -1247,11 +1492,15 @@
         <v>70</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>GS float</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>'GS': GS,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -1259,11 +1508,15 @@
         <v>70</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MP float</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>'MP': MP,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
@@ -1271,11 +1524,15 @@
         <v>70</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FG float</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>'FG': FG,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -1283,11 +1540,15 @@
         <v>70</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FGA float</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>'FGA': FGA,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -1295,11 +1556,15 @@
         <v>69</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FG% varchar</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>'FG%': FG%,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
@@ -1307,11 +1572,15 @@
         <v>70</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3P float</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>'3P': 3P,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
@@ -1319,11 +1588,15 @@
         <v>70</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3PA float</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>'3PA': 3PA,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
@@ -1331,11 +1604,15 @@
         <v>69</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3P% varchar</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>'3P%': 3P%,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
@@ -1343,11 +1620,15 @@
         <v>70</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2P float</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>'2P': 2P,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>54</v>
       </c>
@@ -1355,11 +1636,15 @@
         <v>70</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2PA float</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>'2PA': 2PA,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
@@ -1367,11 +1652,15 @@
         <v>69</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2P% varchar</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f t="shared" ref="G68:G86" si="5">$G$1&amp;A68&amp;$G$1&amp;$H$1&amp;" "&amp;A68&amp;$I$1</f>
+        <v>'2P%': 2P%,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
@@ -1379,11 +1668,15 @@
         <v>69</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>eFG% varchar</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f t="shared" si="5"/>
+        <v>'eFG%': eFG%,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>57</v>
       </c>
@@ -1391,11 +1684,15 @@
         <v>70</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FT float</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f t="shared" si="5"/>
+        <v>'FT': FT,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>58</v>
       </c>
@@ -1403,11 +1700,15 @@
         <v>70</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FTA float</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f t="shared" si="5"/>
+        <v>'FTA': FTA,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>59</v>
       </c>
@@ -1415,11 +1716,15 @@
         <v>69</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FT% varchar</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f t="shared" si="5"/>
+        <v>'FT%': FT%,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>60</v>
       </c>
@@ -1427,11 +1732,15 @@
         <v>70</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ORB float</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f t="shared" si="5"/>
+        <v>'ORB': ORB,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
@@ -1439,11 +1748,15 @@
         <v>70</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>DRB float</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f t="shared" si="5"/>
+        <v>'DRB': DRB,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -1451,11 +1764,15 @@
         <v>70</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TRB float</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f t="shared" si="5"/>
+        <v>'TRB': TRB,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
@@ -1463,11 +1780,15 @@
         <v>70</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AST float</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f t="shared" si="5"/>
+        <v>'AST': AST,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
@@ -1475,11 +1796,15 @@
         <v>70</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>STL float</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f t="shared" si="5"/>
+        <v>'STL': STL,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
@@ -1487,11 +1812,15 @@
         <v>70</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BLK float</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f t="shared" si="5"/>
+        <v>'BLK': BLK,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>63</v>
       </c>
@@ -1499,11 +1828,15 @@
         <v>70</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TOV float</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f t="shared" si="5"/>
+        <v>'TOV': TOV,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>64</v>
       </c>
@@ -1511,11 +1844,15 @@
         <v>70</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PF float</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f t="shared" si="5"/>
+        <v>'PF': PF,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -1523,27 +1860,45 @@
         <v>70</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PTS float</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f t="shared" si="5"/>
+        <v>'PTS': PTS,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f t="shared" si="5"/>
+        <v>'': ,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>65</v>
       </c>
       <c r="E83" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f t="shared" si="5"/>
+        <v>'Team_Player': Team_Player,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f t="shared" si="5"/>
+        <v>'--': --,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>66</v>
       </c>
@@ -1551,11 +1906,15 @@
         <v>69</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" ref="E85:E86" si="4">A85&amp;" "&amp;B85</f>
+        <f t="shared" ref="E85:E86" si="6">A85&amp;" "&amp;B85</f>
         <v>Team_Name varchar</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f t="shared" si="5"/>
+        <v>'Team_Name': Team_Name,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>67</v>
       </c>
@@ -1563,8 +1922,12 @@
         <v>69</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Team_Abbr varchar</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="5"/>
+        <v>'Team_Abbr': Team_Abbr,</v>
       </c>
     </row>
   </sheetData>
